--- a/biology/Botanique/Ocotea_foeniculacea/Ocotea_foeniculacea.xlsx
+++ b/biology/Botanique/Ocotea_foeniculacea/Ocotea_foeniculacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois de senteur noir
 Ocotea foeniculacea, le Bois de senteur noir, est une espèce d'arbres de la famille des Lauraceae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre se rencontre à Cuba, en Haïti, à Porto Rico et en République dominicaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre se rencontre à Cuba, en Haïti, à Porto Rico et en République dominicaine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1889, Carl Christian Mez indique que cet arbre mesure 25 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1889, Carl Christian Mez indique que cet arbre mesure 25 m.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ocotea foeniculacea Mez[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ocotea foeniculacea Mez.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Carl Mez, Jahrbuch des Königlichen Botanischen Gartens und des Botanischen Museums zu Berlin, vol. 5, Berlin, Gebrüder Brontraeger, 1889, 556 p. (lire en ligne), p. 266-267.</t>
         </is>
